--- a/data/trans_orig/P0902-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P0902-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>160050</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>139001</v>
+        <v>135579</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>184472</v>
+        <v>181203</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.155129006835396</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1347268466088317</v>
+        <v>0.1314103664246235</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1787996292446886</v>
+        <v>0.1756316383782867</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>296</v>
@@ -765,19 +765,19 @@
         <v>308485</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>279197</v>
+        <v>280081</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>344057</v>
+        <v>340981</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2345689009402459</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2122988181382465</v>
+        <v>0.2129710844623613</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2616174942588785</v>
+        <v>0.259278638626925</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>462</v>
@@ -786,19 +786,19 @@
         <v>468535</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>434819</v>
+        <v>430799</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>510444</v>
+        <v>507199</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1996452967375223</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1852787119449389</v>
+        <v>0.1835657763050443</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2175032826840936</v>
+        <v>0.2161204865898897</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>871673</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>847251</v>
+        <v>850520</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>892722</v>
+        <v>896144</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.844870993164604</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8212003707553113</v>
+        <v>0.8243683616217132</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8652731533911682</v>
+        <v>0.8685896335753764</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>995</v>
@@ -836,19 +836,19 @@
         <v>1006628</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>971056</v>
+        <v>974132</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1035916</v>
+        <v>1035032</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7654310990597541</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7383825057411215</v>
+        <v>0.740721361373075</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7877011818617535</v>
+        <v>0.7870289155376387</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1867</v>
@@ -857,19 +857,19 @@
         <v>1878300</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1836391</v>
+        <v>1839636</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1912016</v>
+        <v>1916036</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8003547032624777</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7824967173159063</v>
+        <v>0.7838795134101103</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8147212880550611</v>
+        <v>0.8164342236949557</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>84334</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>68216</v>
+        <v>68112</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>104483</v>
+        <v>102933</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04980129086055284</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04028323729593603</v>
+        <v>0.04022159375742484</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06169983843558496</v>
+        <v>0.06078408821725014</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>142</v>
@@ -982,19 +982,19 @@
         <v>145949</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>121984</v>
+        <v>126612</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>168952</v>
+        <v>172086</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09192630506306168</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07683202854578801</v>
+        <v>0.07974715166120135</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1064149741845079</v>
+        <v>0.1083887246537189</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>226</v>
@@ -1003,19 +1003,19 @@
         <v>230283</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>201618</v>
+        <v>201484</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>260469</v>
+        <v>260170</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0701850168090685</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06144850396597052</v>
+        <v>0.06140781625646525</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07938513759182947</v>
+        <v>0.07929371599414317</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1609079</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1588930</v>
+        <v>1590480</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1625197</v>
+        <v>1625301</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9501987091394472</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.938300161564415</v>
+        <v>0.9392159117827497</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9597167627040638</v>
+        <v>0.959778406242575</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1412</v>
@@ -1053,19 +1053,19 @@
         <v>1441724</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1418721</v>
+        <v>1415587</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1465689</v>
+        <v>1461061</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9080736949369383</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8935850258154922</v>
+        <v>0.8916112753462812</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9231679714542117</v>
+        <v>0.9202528483387987</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2977</v>
@@ -1074,19 +1074,19 @@
         <v>3050803</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3020617</v>
+        <v>3020916</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3079468</v>
+        <v>3079602</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9298149831909315</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9206148624081706</v>
+        <v>0.9207062840058569</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9385514960340295</v>
+        <v>0.9385921837435347</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>23054</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14919</v>
+        <v>14555</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35000</v>
+        <v>35273</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04180942815520401</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02705646804890097</v>
+        <v>0.02639538544992794</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06347377936170959</v>
+        <v>0.0639693216633966</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>36</v>
@@ -1199,19 +1199,19 @@
         <v>39234</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27867</v>
+        <v>28482</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>53424</v>
+        <v>52620</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08235300405649054</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05849410774592197</v>
+        <v>0.05978423610330498</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1121390646205714</v>
+        <v>0.1104514521144364</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>57</v>
@@ -1220,19 +1220,19 @@
         <v>62288</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>47771</v>
+        <v>48050</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>78756</v>
+        <v>81273</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06060205661967993</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04647763336744352</v>
+        <v>0.04674968429730084</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07662453195799743</v>
+        <v>0.07907333703867407</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>528354</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>516408</v>
+        <v>516135</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>536489</v>
+        <v>536853</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9581905718447959</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9365262206382911</v>
+        <v>0.9360306783366031</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9729435319510992</v>
+        <v>0.973604614550072</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>416</v>
@@ -1270,19 +1270,19 @@
         <v>437178</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>422988</v>
+        <v>423792</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>448545</v>
+        <v>447930</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9176469959435095</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8878609353794295</v>
+        <v>0.8895485478855639</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.941505892254078</v>
+        <v>0.9402157638966954</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>922</v>
@@ -1291,19 +1291,19 @@
         <v>965532</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>949064</v>
+        <v>946547</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>980049</v>
+        <v>979770</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9393979433803201</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9233754680420025</v>
+        <v>0.9209266629613259</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9535223666325565</v>
+        <v>0.9532503157026991</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>267438</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>236604</v>
+        <v>233482</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>300809</v>
+        <v>297001</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08162209187508913</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0722116170627532</v>
+        <v>0.07125861352706866</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09180680694019218</v>
+        <v>0.09064470691812312</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>474</v>
@@ -1416,19 +1416,19 @@
         <v>493667</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>451783</v>
+        <v>458020</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>534499</v>
+        <v>541117</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1460901285196373</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1336954076318706</v>
+        <v>0.1355410033041544</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.158173292165208</v>
+        <v>0.1601318938960184</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>745</v>
@@ -1437,19 +1437,19 @@
         <v>761106</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>709601</v>
+        <v>711257</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>813398</v>
+        <v>815127</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1143532675669832</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1066149283771311</v>
+        <v>0.1068637554077966</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1222099308664998</v>
+        <v>0.1224697837226158</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>3009105</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2975734</v>
+        <v>2979542</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3039939</v>
+        <v>3043061</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9183779081249108</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9081931930598077</v>
+        <v>0.9093552930818768</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9277883829372469</v>
+        <v>0.9287413864729308</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2823</v>
@@ -1487,19 +1487,19 @@
         <v>2885530</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2844698</v>
+        <v>2838080</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2927414</v>
+        <v>2921177</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8539098714803627</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8418267078347923</v>
+        <v>0.8398681061039814</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8663045923681294</v>
+        <v>0.8644589966958456</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5766</v>
@@ -1508,19 +1508,19 @@
         <v>5894635</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5842343</v>
+        <v>5840614</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5946140</v>
+        <v>5944484</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8856467324330168</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8777900691335001</v>
+        <v>0.8775302162773841</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8933850716228688</v>
+        <v>0.8931362445922035</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>226715</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>200411</v>
+        <v>201918</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>252449</v>
+        <v>258095</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2326132140043885</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2056246897631497</v>
+        <v>0.207171482723763</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.259017317042303</v>
+        <v>0.2648098722656045</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>444</v>
@@ -1872,19 +1872,19 @@
         <v>474205</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>441078</v>
+        <v>439994</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>508769</v>
+        <v>512285</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3544669347029035</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3297049630731579</v>
+        <v>0.328894612480325</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3803036573899368</v>
+        <v>0.3829320641199701</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>649</v>
@@ -1893,19 +1893,19 @@
         <v>700920</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>658907</v>
+        <v>658393</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>747734</v>
+        <v>747517</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3031082400165005</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2849401667884526</v>
+        <v>0.2847177457884966</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3233527373674632</v>
+        <v>0.3232590540315545</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>747928</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>722194</v>
+        <v>716548</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>774232</v>
+        <v>772725</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7673867859956115</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7409826829576972</v>
+        <v>0.7351901277343954</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7943753102368504</v>
+        <v>0.7928285172762369</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>803</v>
@@ -1943,19 +1943,19 @@
         <v>863592</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>829028</v>
+        <v>825512</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>896719</v>
+        <v>897803</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6455330652970965</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6196963426100632</v>
+        <v>0.6170679358800299</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6702950369268421</v>
+        <v>0.671105387519675</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1506</v>
@@ -1964,19 +1964,19 @@
         <v>1611520</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1564706</v>
+        <v>1564923</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1653533</v>
+        <v>1654047</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6968917599834995</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6766472626325367</v>
+        <v>0.6767409459684453</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7150598332115473</v>
+        <v>0.7152822542115034</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>121096</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>99211</v>
+        <v>102256</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>144380</v>
+        <v>146108</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06168829128031188</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05053978368568567</v>
+        <v>0.05209059285044536</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07354942329838596</v>
+        <v>0.07442946001220549</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>180</v>
@@ -2089,19 +2089,19 @@
         <v>198083</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>172609</v>
+        <v>170706</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>226953</v>
+        <v>228859</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1128789424779864</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09836234250851104</v>
+        <v>0.09727826527794287</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1293308179764061</v>
+        <v>0.1304170856850827</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>295</v>
@@ -2110,19 +2110,19 @@
         <v>319179</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>286455</v>
+        <v>285677</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>354611</v>
+        <v>355226</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08585020517449647</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07704841160353787</v>
+        <v>0.07683900349316311</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09538040741241405</v>
+        <v>0.0955457592137831</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1841941</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1818657</v>
+        <v>1816929</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1863826</v>
+        <v>1860781</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9383117087196882</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.926450576701614</v>
+        <v>0.9255705399877941</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9494602163143143</v>
+        <v>0.9479094071495546</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1453</v>
@@ -2160,19 +2160,19 @@
         <v>1556743</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1527873</v>
+        <v>1525967</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1582217</v>
+        <v>1584120</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8871210575220135</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.870669182023594</v>
+        <v>0.8695829143149173</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9016376574914892</v>
+        <v>0.9027217347220572</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3193</v>
@@ -2181,19 +2181,19 @@
         <v>3398684</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3363252</v>
+        <v>3362637</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3431408</v>
+        <v>3432186</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9141497948255035</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.904619592587586</v>
+        <v>0.9044542407862169</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9229515883964622</v>
+        <v>0.9231609965068368</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>27983</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17946</v>
+        <v>17760</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>42640</v>
+        <v>42599</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0581553624743431</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03729522539667857</v>
+        <v>0.03690858731424074</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08861432660933478</v>
+        <v>0.08852911612419646</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -2306,19 +2306,19 @@
         <v>34765</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>24481</v>
+        <v>23953</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>48246</v>
+        <v>47970</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07596226416057068</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05349149955295485</v>
+        <v>0.05233744598630252</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1054184739830223</v>
+        <v>0.1048160442011278</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>54</v>
@@ -2327,19 +2327,19 @@
         <v>62748</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>47300</v>
+        <v>48450</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>82843</v>
+        <v>81491</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06683577155165078</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05038141062507596</v>
+        <v>0.05160571756852526</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08823914772445321</v>
+        <v>0.0867987887693335</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>453198</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>438541</v>
+        <v>438582</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>463235</v>
+        <v>463421</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9418446375256569</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9113856733906652</v>
+        <v>0.9114708838758036</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9627047746033215</v>
+        <v>0.9630914126857593</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>379</v>
@@ -2377,19 +2377,19 @@
         <v>422897</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>409416</v>
+        <v>409692</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>433181</v>
+        <v>433709</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9240377358394293</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8945815260169777</v>
+        <v>0.8951839557988721</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9465085004470452</v>
+        <v>0.9476625540136975</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>795</v>
@@ -2398,19 +2398,19 @@
         <v>876096</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>856001</v>
+        <v>857353</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>891544</v>
+        <v>890394</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9331642284483492</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9117608522755467</v>
+        <v>0.9132012112306664</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.949618589374924</v>
+        <v>0.9483942824314747</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>375794</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>335543</v>
+        <v>338576</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>411373</v>
+        <v>416120</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1099180352975193</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09814455131390622</v>
+        <v>0.09903178280570279</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1203244832339412</v>
+        <v>0.1217129076567216</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>656</v>
@@ -2523,19 +2523,19 @@
         <v>707053</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>661801</v>
+        <v>656192</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>756089</v>
+        <v>754273</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1991537736440981</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1864079658924072</v>
+        <v>0.1848279791591825</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2129656484157716</v>
+        <v>0.2124541821049434</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>998</v>
@@ -2544,19 +2544,19 @@
         <v>1082847</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1024528</v>
+        <v>1021251</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1142848</v>
+        <v>1147628</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1553773036543004</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.147009051156319</v>
+        <v>0.1465389258051525</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1639868401947155</v>
+        <v>0.1646727055544082</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>3043067</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3007488</v>
+        <v>3002741</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3083318</v>
+        <v>3080285</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8900819647024808</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8796755167660588</v>
+        <v>0.8782870923432783</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9018554486860939</v>
+        <v>0.9009682171942972</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2635</v>
@@ -2594,19 +2594,19 @@
         <v>2843232</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2794196</v>
+        <v>2796012</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2888484</v>
+        <v>2894093</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8008462263559019</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7870343515842284</v>
+        <v>0.7875458178950566</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8135920341075927</v>
+        <v>0.8151720208408174</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5494</v>
@@ -2615,19 +2615,19 @@
         <v>5886299</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5826298</v>
+        <v>5821518</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5944618</v>
+        <v>5947895</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8446226963456996</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8360131598052849</v>
+        <v>0.8353272944455918</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8529909488436811</v>
+        <v>0.8534610741948475</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>155515</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>131841</v>
+        <v>134638</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>176914</v>
+        <v>176605</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2061589162984085</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.174775468858771</v>
+        <v>0.1784822714491489</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2345256606602381</v>
+        <v>0.2341166625469445</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>296</v>
@@ -2979,19 +2979,19 @@
         <v>347666</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>316466</v>
+        <v>316611</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>378970</v>
+        <v>380900</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3495327448150271</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3181649795080341</v>
+        <v>0.3183109737994451</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3810043095572977</v>
+        <v>0.3829448423661855</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>457</v>
@@ -3000,19 +3000,19 @@
         <v>503182</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>468096</v>
+        <v>466469</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>540994</v>
+        <v>541705</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2876956060158815</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.267635154232553</v>
+        <v>0.2667047778127587</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3093147820710114</v>
+        <v>0.3097213861023329</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>598832</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>577433</v>
+        <v>577742</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>622506</v>
+        <v>619709</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7938410837015915</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7654743393397619</v>
+        <v>0.7658833374530555</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8252245311412292</v>
+        <v>0.8215177285508511</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>596</v>
@@ -3050,19 +3050,19 @@
         <v>646994</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>615690</v>
+        <v>613760</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>678194</v>
+        <v>678049</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6504672551849729</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6189956904427023</v>
+        <v>0.6170551576338145</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6818350204919659</v>
+        <v>0.6816890262005549</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1197</v>
@@ -3071,19 +3071,19 @@
         <v>1245825</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1208013</v>
+        <v>1207302</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1280911</v>
+        <v>1282538</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7123043939841185</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6906852179289887</v>
+        <v>0.6902786138976672</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7323648457674475</v>
+        <v>0.7332952221872414</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>130736</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>109514</v>
+        <v>107898</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>155090</v>
+        <v>151995</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0629630824757207</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05274259771785542</v>
+        <v>0.05196421323722182</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07469218585401705</v>
+        <v>0.07320152138671694</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>202</v>
@@ -3196,19 +3196,19 @@
         <v>228477</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>199402</v>
+        <v>201045</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>260348</v>
+        <v>259353</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1149109255318484</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1002876039033525</v>
+        <v>0.1011139690268429</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1309399230460898</v>
+        <v>0.130439330089879</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>324</v>
@@ -3217,19 +3217,19 @@
         <v>359213</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>319075</v>
+        <v>320940</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>400968</v>
+        <v>399384</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08837412882864523</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07849940159077709</v>
+        <v>0.07895807312544011</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0986466799532137</v>
+        <v>0.09825703856615041</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1945649</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1921295</v>
+        <v>1924390</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1966871</v>
+        <v>1968487</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9370369175242793</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.925307814145983</v>
+        <v>0.9267984786132829</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9472574022821445</v>
+        <v>0.9480357867627782</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1706</v>
@@ -3267,19 +3267,19 @@
         <v>1759823</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1727952</v>
+        <v>1728947</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1788898</v>
+        <v>1787255</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8850890744681517</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8690600769539102</v>
+        <v>0.8695606699101213</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8997123960966472</v>
+        <v>0.8988860309731573</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3536</v>
@@ -3288,19 +3288,19 @@
         <v>3705472</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3663717</v>
+        <v>3665301</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3745610</v>
+        <v>3743745</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9116258711713547</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9013533200467864</v>
+        <v>0.9017429614338497</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9215005984092229</v>
+        <v>0.9210419268745599</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>26702</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17452</v>
+        <v>16936</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>38547</v>
+        <v>39317</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04882629436696809</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03191147793760397</v>
+        <v>0.03096869737006207</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07048535701750817</v>
+        <v>0.07189300483482633</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>40</v>
@@ -3413,19 +3413,19 @@
         <v>49033</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>34705</v>
+        <v>36518</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>65576</v>
+        <v>66602</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08928995965217973</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06319972034215557</v>
+        <v>0.06650001353636299</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1194160328541021</v>
+        <v>0.1212839737678088</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>63</v>
@@ -3434,19 +3434,19 @@
         <v>75735</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>57910</v>
+        <v>59493</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>93916</v>
+        <v>96856</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06909973681118037</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05283652794452174</v>
+        <v>0.05428082198025085</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08568781044437172</v>
+        <v>0.08837009298008339</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>520184</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>508339</v>
+        <v>507569</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>529434</v>
+        <v>529950</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9511737056330319</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9295146429824916</v>
+        <v>0.9281069951651743</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9680885220623959</v>
+        <v>0.9690313026299381</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>486</v>
@@ -3484,19 +3484,19 @@
         <v>500107</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>483564</v>
+        <v>482538</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>514435</v>
+        <v>512622</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9107100403478202</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8805839671458979</v>
+        <v>0.8787160262321912</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9368002796578444</v>
+        <v>0.933499986463637</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>964</v>
@@ -3505,19 +3505,19 @@
         <v>1020292</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1002111</v>
+        <v>999171</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1038117</v>
+        <v>1036534</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9309002631888197</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9143121895556282</v>
+        <v>0.9116299070199165</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9471634720554771</v>
+        <v>0.9457191780197491</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>312953</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>280130</v>
+        <v>278032</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>348418</v>
+        <v>345524</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09265504434387165</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08293706680754243</v>
+        <v>0.08231603615595512</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1031549857122614</v>
+        <v>0.1022980002588918</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>538</v>
@@ -3630,19 +3630,19 @@
         <v>625176</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>577634</v>
+        <v>581070</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>671807</v>
+        <v>677171</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1769984770114311</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1635385077568094</v>
+        <v>0.1645113332012593</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.19020051760593</v>
+        <v>0.1917190984722603</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>844</v>
@@ -3651,19 +3651,19 @@
         <v>938130</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>876545</v>
+        <v>875626</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>995786</v>
+        <v>992172</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1357696063606993</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1268568286076587</v>
+        <v>0.1267237741885914</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1441137877901293</v>
+        <v>0.1435908112316372</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>3064665</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3029200</v>
+        <v>3032094</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3097488</v>
+        <v>3099586</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9073449556561284</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8968450142877386</v>
+        <v>0.8977019997411085</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9170629331924574</v>
+        <v>0.9176839638440449</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2788</v>
@@ -3701,19 +3701,19 @@
         <v>2906924</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2860293</v>
+        <v>2854929</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2954466</v>
+        <v>2951030</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8230015229885689</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.80979948239407</v>
+        <v>0.8082809015277397</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8364614922431908</v>
+        <v>0.8354886667987407</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5697</v>
@@ -3722,19 +3722,19 @@
         <v>5971588</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5913932</v>
+        <v>5917546</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6033173</v>
+        <v>6034092</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8642303936393007</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8558862122098706</v>
+        <v>0.8564091887683627</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8731431713923413</v>
+        <v>0.8732762258114086</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>151153</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>133762</v>
+        <v>132951</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>173681</v>
+        <v>171816</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2617255859518414</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2316119576311546</v>
+        <v>0.230208164173975</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3007325978478301</v>
+        <v>0.2975035866589704</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>614</v>
@@ -4086,19 +4086,19 @@
         <v>342116</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>320620</v>
+        <v>319720</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>363045</v>
+        <v>362541</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4161801629767425</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3900306635976696</v>
+        <v>0.3889357122673138</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4416401053025935</v>
+        <v>0.4410271946720742</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>809</v>
@@ -4107,19 +4107,19 @@
         <v>493269</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>464637</v>
+        <v>464396</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>522138</v>
+        <v>523845</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3524449021837499</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3319873060080369</v>
+        <v>0.3318145428853363</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3730717636534653</v>
+        <v>0.3742918449130491</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>426373</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>403845</v>
+        <v>405710</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>443764</v>
+        <v>444575</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7382744140481585</v>
+        <v>0.7382744140481587</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6992674021521699</v>
+        <v>0.7024964133410296</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7683880423688455</v>
+        <v>0.7697918358260248</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>813</v>
@@ -4157,19 +4157,19 @@
         <v>479922</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>458993</v>
+        <v>459497</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>501418</v>
+        <v>502318</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5838198370232576</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5583598946974064</v>
+        <v>0.5589728053279258</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6099693364023304</v>
+        <v>0.6110642877326863</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1308</v>
@@ -4178,19 +4178,19 @@
         <v>906295</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>877426</v>
+        <v>875719</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>934927</v>
+        <v>935168</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6475550978162501</v>
+        <v>0.6475550978162502</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6269282363465348</v>
+        <v>0.6257081550869507</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6680126939919634</v>
+        <v>0.6681854571146637</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>236349</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>209085</v>
+        <v>206347</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>267207</v>
+        <v>268681</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1060629596952805</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09382815196511247</v>
+        <v>0.09259944779391764</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1199105717612392</v>
+        <v>0.1205720314277139</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>471</v>
@@ -4303,19 +4303,19 @@
         <v>316148</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>291768</v>
+        <v>288102</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>348452</v>
+        <v>347427</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1457102322504791</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.134473633428385</v>
+        <v>0.1327842249085657</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1605990477110566</v>
+        <v>0.1601265617693522</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>708</v>
@@ -4324,19 +4324,19 @@
         <v>552497</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>509326</v>
+        <v>514362</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>595604</v>
+        <v>595305</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.1256221049213188</v>
+        <v>0.1256221049213187</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1158062646978586</v>
+        <v>0.1169512144967509</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1354235332454266</v>
+        <v>0.1353553568261567</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>1992034</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1961176</v>
+        <v>1959702</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2019298</v>
+        <v>2022036</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8939370403047197</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8800894282387607</v>
+        <v>0.8794279685722861</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9061718480348868</v>
+        <v>0.9074005522060827</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2447</v>
@@ -4374,19 +4374,19 @@
         <v>1853555</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1821251</v>
+        <v>1822276</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1877935</v>
+        <v>1881601</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8542897677495208</v>
+        <v>0.8542897677495209</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.839400952288944</v>
+        <v>0.8398734382306479</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8655263665716151</v>
+        <v>0.8672157750914343</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4199</v>
@@ -4395,19 +4395,19 @@
         <v>3845590</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3802483</v>
+        <v>3802782</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3888761</v>
+        <v>3883725</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8743778950786812</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8645764667545736</v>
+        <v>0.8646446431738434</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8841937353021415</v>
+        <v>0.8830487855032493</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>52614</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>40168</v>
+        <v>39518</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>68522</v>
+        <v>68780</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.07393882389702154</v>
+        <v>0.07393882389702153</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05644780902848431</v>
+        <v>0.0555349135562458</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09629405834588931</v>
+        <v>0.09665729898970854</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>105</v>
@@ -4520,19 +4520,19 @@
         <v>72098</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>59343</v>
+        <v>59349</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>86395</v>
+        <v>85644</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.09810846931336921</v>
+        <v>0.0981084693133692</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08075218853733669</v>
+        <v>0.08076026931925617</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1175642511318745</v>
+        <v>0.1165416015021921</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>160</v>
@@ -4541,19 +4541,19 @@
         <v>124712</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>104763</v>
+        <v>106665</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>145785</v>
+        <v>145991</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.08621823041714649</v>
+        <v>0.08621823041714648</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07242670890543774</v>
+        <v>0.07374215131176191</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1007870021259335</v>
+        <v>0.1009296130744277</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>658973</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>643065</v>
+        <v>642807</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>671419</v>
+        <v>672069</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9260611761029786</v>
+        <v>0.9260611761029784</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9037059416541103</v>
+        <v>0.9033427010102919</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9435521909715157</v>
+        <v>0.9444650864437546</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>899</v>
@@ -4591,19 +4591,19 @@
         <v>662779</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>648482</v>
+        <v>649233</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>675534</v>
+        <v>675528</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9018915306866306</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8824357488681253</v>
+        <v>0.8834583984978076</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9192478114626632</v>
+        <v>0.9192397306807436</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1525</v>
@@ -4612,19 +4612,19 @@
         <v>1321752</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1300679</v>
+        <v>1300473</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1341701</v>
+        <v>1339799</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9137817695828536</v>
+        <v>0.9137817695828535</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8992129978740668</v>
+        <v>0.8990703869255723</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9275732910945623</v>
+        <v>0.926257848688238</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>440116</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>401501</v>
+        <v>405185</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>481973</v>
+        <v>483180</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1251220109598671</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1141440081320732</v>
+        <v>0.1151911899574762</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1370216281631165</v>
+        <v>0.137364725126463</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1190</v>
@@ -4737,19 +4737,19 @@
         <v>730361</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>690809</v>
+        <v>690456</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>771312</v>
+        <v>774787</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1959850518961195</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1853715915106875</v>
+        <v>0.1852768523129835</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2069736544803955</v>
+        <v>0.2079061588856879</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1677</v>
@@ -4758,19 +4758,19 @@
         <v>1170478</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1115042</v>
+        <v>1112446</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1232304</v>
+        <v>1227978</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1615763609228739</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1539238318786035</v>
+        <v>0.1535654659183271</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1701110481024549</v>
+        <v>0.1695138536185702</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>3077381</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3035524</v>
+        <v>3034317</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3115996</v>
+        <v>3112312</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8748779890401328</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8629783718368834</v>
+        <v>0.8626352748735371</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8858559918679267</v>
+        <v>0.8848088100425238</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4159</v>
@@ -4808,19 +4808,19 @@
         <v>2996257</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2955306</v>
+        <v>2951831</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3035809</v>
+        <v>3036162</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8040149481038805</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.793026345519605</v>
+        <v>0.792093841114312</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8146284084893126</v>
+        <v>0.8147231476870163</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7032</v>
@@ -4829,19 +4829,19 @@
         <v>6073637</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6011811</v>
+        <v>6016137</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6129073</v>
+        <v>6131669</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8384236390771262</v>
+        <v>0.838423639077126</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8298889518975449</v>
+        <v>0.8304861463814298</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8460761681213964</v>
+        <v>0.8464345340816728</v>
       </c>
     </row>
     <row r="15">
